--- a/Papers/ML Apply in OS/summary.xlsx
+++ b/Papers/ML Apply in OS/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\Papers\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\Papers\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAEC7EA-DB85-4A97-8E5F-21B8B361BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40283C-4BA2-4981-88E0-31A1F0970834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-6090" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Black-box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Disk scheduling with quality of service guarantees</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,276 @@
   </si>
   <si>
     <t>Job Scheduling Strategies for Parallel Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicting Application Run Times Using Historical Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build a history database which record the use of resources for different task; Combine this with basic scheduling algorithm to predict time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black-box-History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History(greedy/genetics)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predict runtime from historical data using different templates, and use greedy/genetic algrithm to find which information are useful for prediction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The design, implementation and initial evaluation of an advanced knowledge-based process scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM SIGOPS Operating Systems Review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create entries for program that execute before, reduce context switch based on these information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History(table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compatible phase co-scheduling on a CMP of multi-threaded processors</t>
+  </si>
+  <si>
+    <t>Proceedings 20th IEEE International Parallel &amp;amp; Distributed Processing Symposium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use statics(ready instrct &amp; in-flight instrct) to see whether there is confliction among phases for different threads.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An EDF scheduling class for the Linux kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 11th Real-Time Linux Workshop.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earlist deadline queueing for real-time jobs. Every real time task has a deadline and estimated execution time, scheduling based on this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource-Aware Task Scheduling</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Embedded Computing Systems</t>
+  </si>
+  <si>
+    <t>User can declare how much resource the process need and the scheduler can read this information. If the task need more resources then it currently can provide, the task should not be executed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics (Hardware) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistics(User)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed scheduling for many-cores using cooperative game theory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 53rd Annual Design Automation Conference</t>
+  </si>
+  <si>
+    <t>Each core has an agent and construcr a coalition for each task; Agent will calculate the trade-off for joining the coalition. Distributed calculation on different cores.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Programming + Distributed calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal Greedy Algorithm for Many-Core Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extract IPC and instruction numbers and perform greedy algorithm for low overhead and optimal solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heuristic for Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis and simulation of a fair queueing algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start-time fair queueing: a scheduling algorithm for integrated services packet switching networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimization flow control—I: basic algorithm and convergence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tutorial on decomposition methods for network utility maximization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM SIGCOMM Computer Communication Review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE/ACM Transactions on Networking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Journal on Selected Areas in Communications</t>
+  </si>
+  <si>
+    <t>Maintain a queue for every source; Have sequence number and priority (waiting time).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start-Time Fair Queueing; round-robin mechanism within each flow; choose packet in the flow with earliest start time (based on arrival time and finish time of the last packet).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select transmission rates that maximize their own benefit; Use asynchronous distributed algorithm, and use gradient projection algorithm to approach the optimal solution.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterative Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Systematic decompose the master problem into sub-problems, and give alternative representation for problems and use corresponding algorithms. There are a plenty of optimization algorithm (distributed) for solving this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the conference on Communications architectures, protocols and applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP Vegas-New Techniques for Congestion Detection and Avoidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congestion avoidance and control</t>
+  </si>
+  <si>
+    <t>TCP westwood: end-to-end congestion control for wired/wireless networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP Veno: TCP enhancement for transmission over wireless access networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The NewReno Modification to TCP's Fast Recovery Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YeAH-TCP: Yet Another Highspeed TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUBIC: a new TCP-friendly high-speed TCP variant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revisiting TCP congestion control using delay gradients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copa: Practical Delay-Based Congestion Control for the Internet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Networked Systems Design and Implementation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Research in Networking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Proc. PFLDnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Journal on Selected Areas in Communications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heuristic for Memory and Storage (Device)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three techniques: More accurate RTT estimation; Use RTT to predict congestion; Modify slow-start mechanism (add congestion detection)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Periodically measure network bandwidth utilization; The size of the congestion window depends on the network congestion and available bandwidth;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare to TCP Vegas, Veno dynamically adjusts the congestion window size based on the results of congestion detection (instead of RTT).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy-based on loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy-based on RTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy-searching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUBIC's window size is dependent only on the last congestion event; the function doesn't depend on RTT; try to fit the situation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congestion Signal Propagation Mechenism; Use Congestion Window Feedback to adjust the window size.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,15 +529,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -280,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +556,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -308,28 +589,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -338,6 +700,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6DA945"/>
+      <color rgb="FF47A640"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,307 +980,1184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="10"/>
+    <col min="3" max="3" width="42.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="10" customWidth="1"/>
+    <col min="6" max="28" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>1996</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" s="14" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>1997</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>2001</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>2003</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:28" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1994</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:28" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1997</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:28" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1998</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="1:28" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:28" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2006</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:28" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2016</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:28" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:28" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1989</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="42" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1997</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="42" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="42" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="10">
         <v>2003</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="10">
         <v>2008</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1994</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1997</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A40:E40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Papers/ML Apply in OS/summary.xlsx
+++ b/Papers/ML Apply in OS/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\Papers\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\Papers\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40283C-4BA2-4981-88E0-31A1F0970834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4D9F9-A01C-4EA2-BB68-7A3417498FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-6090" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,9 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Congestion avoidance and control</t>
-  </si>
-  <si>
     <t>TCP westwood: end-to-end congestion control for wired/wireless networks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,14 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Policy-based on loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Policy-based on RTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Policy-searching</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,6 +494,26 @@
   </si>
   <si>
     <t>Congestion Signal Propagation Mechenism; Use Congestion Window Feedback to adjust the window size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy-based on network delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy-based on packet loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use delay gradient (change rate for network delay): use maximum &amp; minimum RTT in measured intervals. Using the RTT dynamics to estimate the state of path queue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model the arrival of he packet as a Poisson distribution, have an utility function, and measure the maximum (equlibrium) unitility and corresponding target rate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy-based</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,18 +660,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,14 +696,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,1184 +1002,1595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="10"/>
-    <col min="3" max="3" width="42.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="58.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="10" customWidth="1"/>
-    <col min="6" max="28" width="8.6640625" style="5"/>
+    <col min="1" max="2" width="8.6640625" style="18"/>
+    <col min="3" max="3" width="48.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="8"/>
+    <col min="5" max="5" width="42.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:30" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13">
+      <c r="D3" s="11">
         <v>1996</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" s="14" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+    </row>
+    <row r="4" spans="1:30" s="12" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13">
+      <c r="D4" s="11">
         <v>1997</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-    </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+    </row>
+    <row r="5" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8">
+      <c r="D5" s="6">
         <v>2001</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+    </row>
+    <row r="6" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11">
+      <c r="D6" s="9">
         <v>2003</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8">
+      <c r="D7" s="6">
         <v>2003</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-    </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8">
+      <c r="D8" s="6">
         <v>2008</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9">
+      <c r="D9" s="7">
         <v>2009</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-    </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+    </row>
+    <row r="10" spans="1:30" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9">
+      <c r="D10" s="7">
         <v>2009</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+    </row>
+    <row r="11" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="8">
+      <c r="D11" s="6">
         <v>2010</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-    </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+    </row>
+    <row r="12" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="8">
+      <c r="D12" s="6">
         <v>2012</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+    </row>
+    <row r="13" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8">
+      <c r="D13" s="6">
         <v>2012</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-    </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+    </row>
+    <row r="14" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="8">
+      <c r="D14" s="6">
         <v>2013</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+    </row>
+    <row r="15" spans="1:30" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="8">
+      <c r="D15" s="6">
         <v>2015</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+    </row>
+    <row r="16" spans="1:30" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:28" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+    </row>
+    <row r="17" spans="1:32" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="13">
+      <c r="D17" s="11">
         <v>1994</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-    </row>
-    <row r="18" spans="1:28" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+    </row>
+    <row r="18" spans="1:32" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="11">
+      <c r="D18" s="9">
         <v>1997</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-    </row>
-    <row r="19" spans="1:28" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+    </row>
+    <row r="19" spans="1:32" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="11">
+      <c r="D19" s="9">
         <v>1998</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-    </row>
-    <row r="20" spans="1:28" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+    </row>
+    <row r="20" spans="1:32" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="11">
+      <c r="D20" s="9">
         <v>2001</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-    </row>
-    <row r="21" spans="1:28" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+    </row>
+    <row r="21" spans="1:32" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="9">
+      <c r="D21" s="7">
         <v>2006</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-    </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+    </row>
+    <row r="22" spans="1:32" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="8">
+      <c r="D22" s="6">
         <v>2009</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-    </row>
-    <row r="23" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+    </row>
+    <row r="23" spans="1:32" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="9">
+      <c r="D23" s="7">
         <v>2015</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-    </row>
-    <row r="24" spans="1:28" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+    </row>
+    <row r="24" spans="1:32" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="13">
+      <c r="D24" s="11">
         <v>2016</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-    </row>
-    <row r="25" spans="1:28" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+    </row>
+    <row r="25" spans="1:32" s="12" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="13">
+      <c r="D25" s="11">
         <v>2017</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-    </row>
-    <row r="26" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+    </row>
+    <row r="26" spans="1:32" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:28" ht="28" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+    </row>
+    <row r="27" spans="1:32" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="10">
+      <c r="D27" s="6">
         <v>1989</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="E27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="F27" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="G27" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" ht="28" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+    </row>
+    <row r="28" spans="1:32" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="10">
+      <c r="D28" s="19">
         <v>1994</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="E28" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="F28" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+    </row>
+    <row r="29" spans="1:32" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1997</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+    </row>
+    <row r="30" spans="1:32" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1999</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+    </row>
+    <row r="31" spans="1:32" s="20" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2002</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="G31" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+    </row>
+    <row r="32" spans="1:32" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="19">
+        <v>2003</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+    </row>
+    <row r="33" spans="1:32" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="19">
+        <v>2004</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+    </row>
+    <row r="34" spans="1:32" s="12" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2006</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+    </row>
+    <row r="35" spans="1:32" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2007</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1995</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="42" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1997</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="42" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1999</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="42" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="10">
-        <v>2002</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="G35" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+    </row>
+    <row r="36" spans="1:32" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2008</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+    </row>
+    <row r="37" spans="1:32" ht="42" x14ac:dyDescent="0.3">
+      <c r="C37" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2011</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+    </row>
+    <row r="38" spans="1:32" ht="42" x14ac:dyDescent="0.3">
+      <c r="C38" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2018</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+    </row>
+    <row r="39" spans="1:32" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="10">
-        <v>2003</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="10">
-        <v>2004</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="10">
-        <v>2006</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="10">
-        <v>2007</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="10">
-        <v>2008</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="10">
-        <v>2011</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Papers/ML Apply in OS/summary.xlsx
+++ b/Papers/ML Apply in OS/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\Papers\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7222CEF-1B15-48CF-9FC6-A3C528B9AD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E9F215-733E-47B0-8108-326AD9F6E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-6090" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Papers/ML Apply in OS/summary.xlsx
+++ b/Papers/ML Apply in OS/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\Papers\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E9F215-733E-47B0-8108-326AD9F6E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F7021-F6E9-4433-8311-775F0E53809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-6090" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IO Scheduling for falsh storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IO Scheduling generally</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,6 +583,10 @@
   </si>
   <si>
     <t>Specific Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO Scheduling for flash storage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
@@ -1262,13 +1262,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1403,7 +1403,7 @@
         <v>121</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1448,7 +1448,7 @@
         <v>121</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1535,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>23</v>
@@ -1670,7 +1670,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>23</v>
@@ -1725,7 +1725,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>48</v>
@@ -1772,10 +1772,10 @@
         <v>52</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1819,10 +1819,10 @@
         <v>53</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -1866,10 +1866,10 @@
         <v>56</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -1901,7 +1901,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="8">
         <v>2006</v>
@@ -1913,7 +1913,7 @@
         <v>58</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>65</v>
@@ -1960,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>23</v>
@@ -2007,7 +2007,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>66</v>
@@ -2054,7 +2054,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>71</v>
@@ -2101,7 +2101,7 @@
         <v>74</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>75</v>
@@ -2158,7 +2158,7 @@
         <v>84</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>23</v>
@@ -2205,7 +2205,7 @@
         <v>104</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>111</v>
@@ -2252,7 +2252,7 @@
         <v>85</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>23</v>
@@ -2299,7 +2299,7 @@
         <v>86</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>87</v>
@@ -2346,7 +2346,7 @@
         <v>105</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>111</v>
@@ -2393,7 +2393,7 @@
         <v>106</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>107</v>
@@ -2437,10 +2437,10 @@
         <v>101</v>
       </c>
       <c r="F33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>112</v>
@@ -2487,7 +2487,7 @@
         <v>88</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>87</v>
@@ -2534,7 +2534,7 @@
         <v>110</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>107</v>
@@ -2581,7 +2581,7 @@
         <v>109</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>108</v>
@@ -2626,7 +2626,7 @@
         <v>113</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>111</v>
@@ -2646,7 +2646,7 @@
         <v>114</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>115</v>

--- a/Papers/ML Apply in OS/summary.xlsx
+++ b/Papers/ML Apply in OS/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\Papers\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F7021-F6E9-4433-8311-775F0E53809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAE77C-B16D-464E-95B9-65855C2C2587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-6090" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="183">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heuristic for Space Allocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IO Scheduling for Tape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,6 +583,171 @@
   </si>
   <si>
     <t>IO Scheduling for flash storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heuristic for Memory Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving Cache Management Policies Using Dynamic Reuse Distances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 IEEE/ACM 45th Annual International Symposium on Microarchitecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Symposium on Micro architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypass and insertion algorithms for exclusive last-level caches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Performance cache replacement using re-reference interval prediction (RRIP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Symposium on Computer Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For mixed access pattern, dynamic insertion polies not work well. Use Rereference Interval Prediction (RRIP) which can predict cache blocks to be intermediate-near-diastant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistic-history (Prediction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Properties of a block: 1. Trip Count (Access counts) 2. L2 Cache hits when the block is in L2 Cache.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistic-reference interval (Prediction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sampling Dead Block Prediction for Last-Level Caches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use program counters (PCs) to determine when a cache block is likely to be dead. Set up a sample table.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure reuse distance (RD) and build RDD (reuse distance distribution) dynamically. Have a protect distance to protect block with small reuse distance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache Management (Replacement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximizing Cache Performance Under Uncertainty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 IEEE International Symposium on High Performance Computer Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use economic value added (EVA) to determine which candidate should be replaced. Record the age distribution and calculate EVA through this distribution. No need to update in real-time. (Define hit rate in a clear and concise way)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving Cache Hit Rate by Maximizing Hit Density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSDI '18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key-value cache. Evict candidate with least hit density. Monitor distribution of Hits &amp; Lifetime online. Also include information like last it age and its app id.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the Design of a New Linux Readahead Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consider system status and data pattern, choose different policies. Foe example, can choose random access or sequencial access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy-based-on data pattern &amp; congestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAIA: An OS Page Cache for Heterogeneous Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Proceedings of the
+2019 USENIX Annual Technical Conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Cache/Readahead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus on consistency protocols for sharing memory-mapped files across the CPU and the GPU ;Have page cache in the memory GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New design fr heterogenous memory system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linearizing irregular memory accesses for improved correlated prefetching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Symposium on Microarchitecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Readahead/Prefetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Readhead/Prefetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use an extra level of indirection to translate correlated physical addresses into consecutive addresses in a new structural address space. Learn from pairs of correlated physical addresses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistic-physocal addresses(Prediction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing local streams: improving timeliness in data prefetching </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Supercomputing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistic-timing info (Prediction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propose a stream timing technique, store the timing information and addresses referenced to predict when a miss happens.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended histories: improving regularity and performance in correlation prefetchers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Performance Embedded Architectures and Compilers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +755,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +773,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -733,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,6 +950,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,16 +1265,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="7"/>
+    <col min="4" max="4" width="8.6640625" style="27"/>
     <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
@@ -1088,7 +1285,7 @@
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1098,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
@@ -1120,7 +1317,7 @@
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="22">
         <v>1996</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1130,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>9</v>
@@ -1165,7 +1362,7 @@
       <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="22">
         <v>1997</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1175,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>9</v>
@@ -1210,7 +1407,7 @@
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="23">
         <v>2001</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1220,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>16</v>
@@ -1255,20 +1452,20 @@
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="24">
         <v>2003</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1300,7 +1497,7 @@
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="23">
         <v>2003</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1310,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>23</v>
@@ -1345,7 +1542,7 @@
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="23">
         <v>2008</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1355,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>23</v>
@@ -1390,7 +1587,7 @@
       <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="24">
         <v>2009</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1400,10 +1597,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1435,7 +1632,7 @@
       <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="24">
         <v>2009</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1445,10 +1642,10 @@
         <v>31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1480,7 +1677,7 @@
       <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="23">
         <v>2010</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1490,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>23</v>
@@ -1525,7 +1722,7 @@
       <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="23">
         <v>2012</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1535,7 +1732,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>23</v>
@@ -1570,7 +1767,7 @@
       <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="23">
         <v>2012</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1615,7 +1812,7 @@
       <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="23">
         <v>2013</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1625,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -1660,7 +1857,7 @@
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="23">
         <v>2015</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1670,7 +1867,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>23</v>
@@ -1715,7 +1912,7 @@
       <c r="C17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="22">
         <v>1994</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -1725,7 +1922,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>48</v>
@@ -1762,7 +1959,7 @@
       <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="24">
         <v>1997</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1772,10 +1969,10 @@
         <v>52</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1809,7 +2006,7 @@
       <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="24">
         <v>1998</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1819,10 +2016,10 @@
         <v>53</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -1856,7 +2053,7 @@
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="24">
         <v>2001</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1866,10 +2063,10 @@
         <v>56</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -1901,9 +2098,9 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="8">
+        <v>130</v>
+      </c>
+      <c r="D21" s="24">
         <v>2006</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1913,7 +2110,7 @@
         <v>58</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>65</v>
@@ -1950,7 +2147,7 @@
       <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="23">
         <v>2009</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1960,7 +2157,7 @@
         <v>61</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>23</v>
@@ -1997,7 +2194,7 @@
       <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="24">
         <v>2015</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2007,7 +2204,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>66</v>
@@ -2044,7 +2241,7 @@
       <c r="C24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="22">
         <v>2016</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2054,7 +2251,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>71</v>
@@ -2091,7 +2288,7 @@
       <c r="C25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="22">
         <v>2017</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2101,7 +2298,7 @@
         <v>74</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>75</v>
@@ -2148,7 +2345,7 @@
       <c r="C27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="23">
         <v>1989</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -2158,7 +2355,7 @@
         <v>84</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>23</v>
@@ -2195,7 +2392,7 @@
       <c r="C28" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="25">
         <v>1994</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2205,7 +2402,7 @@
         <v>104</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>111</v>
@@ -2242,7 +2439,7 @@
       <c r="C29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="23">
         <v>1997</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -2252,7 +2449,7 @@
         <v>85</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>23</v>
@@ -2289,7 +2486,7 @@
       <c r="C30" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="22">
         <v>1999</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -2299,7 +2496,7 @@
         <v>86</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>87</v>
@@ -2336,7 +2533,7 @@
       <c r="C31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="25">
         <v>2002</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2346,7 +2543,7 @@
         <v>105</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>111</v>
@@ -2383,7 +2580,7 @@
       <c r="C32" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="25">
         <v>2003</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -2393,7 +2590,7 @@
         <v>106</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>107</v>
@@ -2430,17 +2627,17 @@
       <c r="C33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="25">
         <v>2004</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="F33" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>112</v>
@@ -2477,7 +2674,7 @@
       <c r="C34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="22">
         <v>2006</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -2487,7 +2684,7 @@
         <v>88</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>87</v>
@@ -2524,7 +2721,7 @@
       <c r="C35" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="25">
         <v>2007</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2534,7 +2731,7 @@
         <v>110</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>107</v>
@@ -2571,7 +2768,7 @@
       <c r="C36" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="25">
         <v>2008</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -2581,7 +2778,7 @@
         <v>109</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>108</v>
@@ -2616,7 +2813,7 @@
       <c r="C37" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="25">
         <v>2011</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2626,7 +2823,7 @@
         <v>113</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>111</v>
@@ -2636,7 +2833,7 @@
       <c r="C38" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="25">
         <v>2018</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2646,7 +2843,7 @@
         <v>114</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>115</v>
@@ -2654,7 +2851,7 @@
     </row>
     <row r="39" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C39" s="17" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -2662,14 +2859,244 @@
       <c r="G39" s="18"/>
       <c r="H39" s="19"/>
     </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:33" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C42" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="29">
+        <v>2008</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C43" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="27">
+        <v>2010</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+      <c r="C44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="27">
+        <v>2010</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="27">
+        <v>2010</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="27">
+        <v>2011</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C47" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="27">
+        <v>2011</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+      <c r="C48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="27">
+        <v>2012</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="27">
+        <v>2013</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C50" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="27">
+        <v>2017</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="27">
+        <v>2018</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C52" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="27">
+        <v>2019</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Papers/ML Apply in OS/summary.xlsx
+++ b/Papers/ML Apply in OS/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\Papers\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAE77C-B16D-464E-95B9-65855C2C2587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CC122-C5E4-4E60-9E8F-0B1F3A35D53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="231">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model-based</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,10 +671,6 @@
   </si>
   <si>
     <t>Consider system status and data pattern, choose different policies. Foe example, can choose random access or sequencial access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Policy-based-on data pattern &amp; congestion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>New design fr heterogenous memory system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linearizing irregular memory accesses for improved correlated prefetching</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,6 +736,209 @@
   </si>
   <si>
     <t>High Performance Embedded Architectures and Compilers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include secondary miss (a request where the data requested by a primary miss have not arrived in the cache)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Case for Resource Efficient Prefetching in Multicores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Parallel Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on runtime sampling and fast cache modeling, they use StatStack to calculate the miss rate for each instruction. Do a cost-benefit analysis which include per-instruction miss ratios and latency information to filter out delinquent loads.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistic-miss rate estimation (Prediction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Page Replacement Algorithm Based on Frequency Derived From Reference History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the Symposium on Applied Computing - SAC ’17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Replacement Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dueling CLOCK: Adaptive cachereplacement policy based on the CLOCK algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design, Automation and Test in Europe Conference and Exhibition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Sort (DS) Page Replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The International Journal of Computer Science &amp; Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Reference count to sort every given time quantum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Least Recently Plus Five Least Frequently Replacement Policy (LR+5LF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The International Arab Journl of Information Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A combination of LRU and LFU, use weighted sum to evaluate which page should be replaced.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A combination of CLOCK and scan-resistant CLOCK. Divide into three groups, select policy based on miss counts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The lru-k page replacement algorithm for database disk buffering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Sigmod Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimization of LRU. Consider the reference frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Cache Management Using Frequency-Based Replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A combination of reference frequency and block age. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New design for heterogenous memory system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brief Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propose a log-based page replacement algorithm. Evict page with lowest reference rate in a window-sized log. Determine the threshold window size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space Allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast, Multicore-Scalable, Low-Fragmentation Memory Allocation through Large Virtual Memory and Global Data Structures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM SIGPLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniform treatment of small and big objects; Separate memory into spans, and each span include several objects with same size class; Use a global span pool to alleviate fragmentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Slab Allocator: An Object Caching Kernel Memory Allocator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoard: A Scalable Memory Allocator for Multithreaded Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Sigplan Notices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel memory allocator--slab allocator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use lock-free cache to accelerate memory allocation. Every process has its own cache; Delay in release; hierachical allocation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design (ML Perspective-Prediction for lifetime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design-based on data pattern &amp; congestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other Related Surveys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Learned" Operating Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM SIGOPS Operating Systems Review</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence in the Low-Level Realm – A Survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arxiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Survey of Machine Learning for Computer Architecture and Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Computing Surveys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Survey of Machine Learning Applied to Computer Architecture Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pros &amp; Cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory system, NoC, GPU, Single-Core Processor, Chip Design, Analog Circuit Analysis, Resouce Allocation and Management, Scheduling, Code Generation and Compiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O Scheduling and Latency Management; Scheduling; Cache Management; Malware Detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration Learning; Space Allocation; Scheduling; Cache management; Mapping(virtual-physical)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coverage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +946,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,8 +978,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +1034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,6 +1139,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,33 +1161,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,6 +1201,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1265,16 +1470,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="27"/>
+    <col min="4" max="4" width="8.6640625" style="7"/>
     <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
@@ -1285,31 +1490,31 @@
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
@@ -1317,7 +1522,7 @@
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="10">
         <v>1996</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1327,10 +1532,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1360,22 +1565,22 @@
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1997</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22">
-        <v>1997</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1405,22 +1610,22 @@
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="23">
-        <v>2001</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1450,22 +1655,22 @@
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2003</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24">
-        <v>2003</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1495,22 +1700,22 @@
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2003</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23">
-        <v>2003</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1540,22 +1745,22 @@
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2008</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="23">
-        <v>2008</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1585,22 +1790,22 @@
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2009</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="24">
-        <v>2009</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1630,22 +1835,22 @@
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2009</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="24">
-        <v>2009</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1675,22 +1880,22 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="23">
-        <v>2010</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11"/>
@@ -1720,22 +1925,22 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2012</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="23">
-        <v>2012</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1765,22 +1970,22 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2012</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="23">
-        <v>2012</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1810,22 +2015,22 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2013</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="23">
-        <v>2013</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1855,22 +2060,22 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="23">
-        <v>2015</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1897,35 +2102,35 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="22">
-        <v>1994</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1957,22 +2162,22 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1997</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="24">
-        <v>1997</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -2004,22 +2209,22 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="24">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8">
         <v>1998</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -2051,22 +2256,22 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2001</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="24">
-        <v>2001</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="G20" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2098,22 +2303,22 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2006</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="24">
-        <v>2006</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="H21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2145,22 +2350,22 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2009</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="23">
-        <v>2009</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -2192,22 +2397,22 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="24">
-        <v>2015</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="G23" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2239,22 +2444,22 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2016</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="22">
-        <v>2016</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -2286,22 +2491,22 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="22">
-        <v>2017</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -2330,35 +2535,35 @@
       <c r="AG25"/>
     </row>
     <row r="26" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C26" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="23">
+        <v>76</v>
+      </c>
+      <c r="D27" s="6">
         <v>1989</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -2390,22 +2595,22 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="25">
+        <v>89</v>
+      </c>
+      <c r="D28" s="12">
         <v>1994</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2437,22 +2642,22 @@
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="23">
+        <v>77</v>
+      </c>
+      <c r="D29" s="6">
         <v>1997</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -2484,22 +2689,22 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="22">
+        <v>78</v>
+      </c>
+      <c r="D30" s="10">
         <v>1999</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -2531,22 +2736,22 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="25">
+        <v>90</v>
+      </c>
+      <c r="D31" s="12">
         <v>2002</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -2578,22 +2783,22 @@
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="25">
+        <v>91</v>
+      </c>
+      <c r="D32" s="12">
         <v>2003</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -2625,22 +2830,22 @@
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="25">
+        <v>92</v>
+      </c>
+      <c r="D33" s="12">
         <v>2004</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="H33" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -2672,22 +2877,22 @@
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="22">
+        <v>79</v>
+      </c>
+      <c r="D34" s="10">
         <v>2006</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -2719,22 +2924,22 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="25">
+        <v>93</v>
+      </c>
+      <c r="D35" s="12">
         <v>2007</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -2766,22 +2971,22 @@
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="25">
+        <v>94</v>
+      </c>
+      <c r="D36" s="12">
         <v>2008</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -2811,281 +3016,551 @@
     </row>
     <row r="37" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C37" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="25">
+        <v>95</v>
+      </c>
+      <c r="D37" s="12">
         <v>2011</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C38" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2018</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="25">
+      <c r="F38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1990</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C41" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="22">
+        <v>1993</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C42" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="25">
+        <v>1994</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C43" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="25">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C44" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="26">
+        <v>2008</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C45" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="23">
+        <v>2010</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2010</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+      <c r="C47" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2010</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C48" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2010</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C50" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C53" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C54" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2013</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C55" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C56" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="24">
+        <v>2015</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C59" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="8">
         <v>2018</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C39" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D41" s="26"/>
-    </row>
-    <row r="42" spans="1:33" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C42" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="29">
-        <v>2008</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="E59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C60" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="G42" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H42" s="21" t="s">
+      <c r="D60" s="24">
+        <v>2019</v>
+      </c>
+      <c r="E60" s="24" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C43" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="27">
-        <v>2010</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" ht="42" x14ac:dyDescent="0.3">
-      <c r="C44" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="27">
-        <v>2010</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C45" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="27">
-        <v>2010</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C46" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="27">
-        <v>2011</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C47" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="27">
-        <v>2011</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" ht="42" x14ac:dyDescent="0.3">
-      <c r="C48" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="27">
-        <v>2012</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C49" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="27">
-        <v>2013</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C50" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="27">
-        <v>2017</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C51" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="27">
-        <v>2018</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C52" s="7" t="s">
+      <c r="F60" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="27">
+      <c r="H60" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C61" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="3:8" s="27" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C62" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C63" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="7">
         <v>2019</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
+      <c r="E63" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C64" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C66" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3093,10 +3568,213 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
+    <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="74117954-47dd-4623-be10-f2d34b3fe6e8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C05F824-F09D-405F-9153-DBE4FFD9352F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>